--- a/content/plataformes/dadesref/entitats/Relacio_Parentiu.xlsx
+++ b/content/plataformes/dadesref/entitats/Relacio_Parentiu.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/40.Relacio_parentiu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\40.Relacio_parentiu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{6DDEC666-2713-4657-B8F7-7EF6E856DF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8917E892-ACC1-41AC-AACF-15B4EEB620AE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F26F084-85FE-4FF5-A409-69FEA6588E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relacio Parentiu" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
   <si>
     <t>Codi</t>
   </si>
@@ -43,9 +56,6 @@
     <t>Consanguinitat</t>
   </si>
   <si>
-    <t>Pare/Mare</t>
-  </si>
-  <si>
     <t>Gendre/Nora</t>
   </si>
   <si>
@@ -176,6 +186,15 @@
   </si>
   <si>
     <t>Nom entitat:</t>
+  </si>
+  <si>
+    <t>Progenitor/Progenitora</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Germanastre/Germanastra</t>
   </si>
 </sst>
 </file>
@@ -277,9 +296,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:F28" totalsRowShown="0">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F28">
-    <sortCondition ref="A4:A28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:F29" totalsRowShown="0">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F29">
+    <sortCondition ref="A4:A29"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="1"/>
@@ -556,14 +575,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
@@ -574,10 +593,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -588,33 +607,33 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>4</v>
@@ -622,19 +641,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>6</v>
@@ -642,19 +661,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>6</v>
@@ -662,59 +681,59 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>6</v>
@@ -722,39 +741,39 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>6</v>
@@ -762,22 +781,22 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -785,16 +804,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>6</v>
@@ -805,19 +824,19 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -825,16 +844,16 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>6</v>
@@ -845,19 +864,19 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -865,16 +884,16 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>6</v>
@@ -885,19 +904,19 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -905,16 +924,16 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>6</v>
@@ -925,19 +944,19 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -945,16 +964,16 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>6</v>
@@ -965,19 +984,19 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -985,16 +1004,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>6</v>
@@ -1005,19 +1024,19 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1025,19 +1044,19 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1045,16 +1064,16 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>4</v>
@@ -1062,42 +1081,62 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
         <v>46</v>
       </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1150,7 @@
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="A4:F25 A28 C28 E28 A27:F27 A26 C26:F26" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:F5 A29 C29 E29 A28:F28 A26 C26:F26 A7:F25 A6 C6:F6" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -1120,19 +1159,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010005A3960399C2234EB92CC9686FF6F87F" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6b9fb4baab9ad9fbdda99e3f5c22fc21">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3aff557-982a-455c-8bbc-92c71da94542" xmlns:ns3="857edd72-1fa1-43ec-b599-5660574b73e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="431e8fb1ae557487b3a709321472510d" ns2:_="" ns3:_="">
-    <xsd:import namespace="f3aff557-982a-455c-8bbc-92c71da94542"/>
-    <xsd:import namespace="857edd72-1fa1-43ec-b599-5660574b73e4"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3ef69ce2871fbcc5f09479e4bf780f40">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1da067e5016208cce5150261eadc34a0" ns2:_="" ns3:_="">
+    <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <xsd:import namespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1141,6 +1171,11 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
@@ -1150,7 +1185,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f3aff557-982a-455c-8bbc-92c71da94542" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ae060729-66f1-4cea-a45e-be2331389c13" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1163,11 +1198,40 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d19f90c4-00d9-45b7-bc62-04f95cbe7a8b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="857edd72-1fa1-43ec-b599-5660574b73e4" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1186,7 +1250,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1293,29 +1357,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAC0DC75-98C4-4786-87BE-3FAB7C0EC5D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BA50F5-1D1C-4FB0-AA07-0E33311D5C60}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05A5B0C9-99CA-4915-988E-59C114F717E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f3aff557-982a-455c-8bbc-92c71da94542"/>
-    <ds:schemaRef ds:uri="857edd72-1fa1-43ec-b599-5660574b73e4"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1326,7 +1395,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CB70562-1517-4985-9F8C-E9375EA113A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -1338,6 +1407,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAC0DC75-98C4-4786-87BE-3FAB7C0EC5D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>